--- a/result/sst_res_result_1.xlsx
+++ b/result/sst_res_result_1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,208 +461,218 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>model_size</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>18</v>
+          <t>model_load_weights</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>data_file_path</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>./sst_weekly.mat</t>
-        </is>
+          <t>model_size</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>training_batch_size</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>50</v>
+          <t>data_file_path</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>./sst_weekly.mat</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>training_learning_rate</t>
+          <t>training_batch_size</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>training_start_point</t>
+          <t>training_learning_rate</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>training_sensor_num</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[10, 20, 30, 50, 100]</t>
-        </is>
+          <t>training_start_point</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>training_sensor_seed</t>
+          <t>training_sensor_num</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[4, 20, 75, 138, 278]</t>
+          <t>[10]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>training_sigma</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.05</v>
+          <t>training_sensor_seed</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[4, 20, 75, 138, 278]</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>training_input_type</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
+          <t>training_sigma</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>testing_batch_size</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
+          <t>training_input_type</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>testing_start_point</t>
+          <t>testing_batch_size</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>testing_norm</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
+          <t>testing_start_point</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1098</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>testing_sensor_num</t>
+          <t>testing_norm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[10, 20, 30, 50, 70, 100, 200]</t>
+          <t>L2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>testing_sensor_seed</t>
+          <t>testing_sensor_num</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[553, 897, 1016, 1255, 1437]</t>
+          <t>[10, 20, 30, 50, 70, 100, 200]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>testing_sigma</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.05</v>
+          <t>testing_sensor_seed</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[553, 897, 1016, 1255, 1437]</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>testing_input_type</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
+          <t>testing_sigma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>device_prefer_gpu</t>
-        </is>
-      </c>
-      <c r="B19" t="b">
-        <v>1</v>
+          <t>testing_input_type</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>output_model_result</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>sst_res_result_1</t>
-        </is>
+          <t>device_prefer_gpu</t>
+        </is>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>output_model_result</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>sst_res_result_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>output_model_save_path</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>./sst_res_test.pth</t>
         </is>
@@ -729,22 +739,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7757511734962463</v>
+        <v>0.7906214082241059</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7757511734962463</v>
+        <v>0.7922705411911011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7757511734962463</v>
+        <v>0.7890471220016479</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7758768200874329</v>
+        <v>0.7908628189563751</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7758768200874329</v>
+        <v>0.7925859689712524</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7758768200874329</v>
+        <v>0.7891939878463745</v>
       </c>
     </row>
     <row r="3">
@@ -752,22 +762,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7757478952407837</v>
+        <v>0.7908078229427338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7757478952407837</v>
+        <v>0.7925535440444946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7757478952407837</v>
+        <v>0.789075493812561</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7757722735404968</v>
+        <v>0.790873064994812</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7757722735404968</v>
+        <v>0.792738139629364</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7757722735404968</v>
+        <v>0.7891939282417297</v>
       </c>
     </row>
     <row r="4">
@@ -775,22 +785,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7757493853569031</v>
+        <v>0.7908377468585968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7757493853569031</v>
+        <v>0.7925435304641724</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7757493853569031</v>
+        <v>0.7892128825187683</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7757738828659058</v>
+        <v>0.7908187603950501</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7757738828659058</v>
+        <v>0.7925798892974854</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7757738828659058</v>
+        <v>0.7891991138458252</v>
       </c>
     </row>
     <row r="5">
@@ -798,22 +808,22 @@
         <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7757483720779419</v>
+        <v>0.7908221137523651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7757483720779419</v>
+        <v>0.7924769520759583</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7757483720779419</v>
+        <v>0.789239227771759</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7757547497749329</v>
+        <v>0.7908337521553039</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7757547497749329</v>
+        <v>0.7925177216529846</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7757547497749329</v>
+        <v>0.7892272472381592</v>
       </c>
     </row>
     <row r="6">
@@ -821,22 +831,22 @@
         <v>70</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7757567167282104</v>
+        <v>0.7908522450923919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7757567167282104</v>
+        <v>0.7925485968589783</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7757567167282104</v>
+        <v>0.7892629504203796</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7757560014724731</v>
+        <v>0.7908570981025695</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7757560014724731</v>
+        <v>0.7925568819046021</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7757560014724731</v>
+        <v>0.789239227771759</v>
       </c>
     </row>
     <row r="7">
@@ -844,22 +854,22 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7757526040077209</v>
+        <v>0.7908496975898742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7757526040077209</v>
+        <v>0.7925370931625366</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7757526040077209</v>
+        <v>0.7892277836799622</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7757476568222046</v>
+        <v>0.7909084177017212</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7757476568222046</v>
+        <v>0.7925814986228943</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7757476568222046</v>
+        <v>0.7893232107162476</v>
       </c>
     </row>
     <row r="8">
@@ -867,22 +877,22 @@
         <v>200</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7757460474967957</v>
+        <v>0.7908462274074555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7757460474967957</v>
+        <v>0.7925001978874207</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7757460474967957</v>
+        <v>0.7892578840255737</v>
       </c>
       <c r="E8" t="n">
-        <v>0.77574622631073</v>
+        <v>0.7908975946903228</v>
       </c>
       <c r="F8" t="n">
-        <v>0.77574622631073</v>
+        <v>0.7926109433174133</v>
       </c>
       <c r="G8" t="n">
-        <v>0.77574622631073</v>
+        <v>0.7892688512802124</v>
       </c>
     </row>
   </sheetData>

--- a/result/sst_res_result_1.xlsx
+++ b/result/sst_res_result_1.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[10, 20, 30, 50, 70, 100, 200]</t>
+          <t>[20, 30, 50, 70, 100, 200]</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -674,7 +674,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./sst_res_test.pth</t>
+          <t>model/sst_res_test.pth</t>
         </is>
       </c>
     </row>
@@ -705,32 +705,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>trained_results</t>
+          <t>avg_trained</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>trained_max</t>
+          <t>avg_train</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>trained_min</t>
+          <t>avg_test</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>untrained_results</t>
+          <t>avg_untrained</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>untrained_max</t>
+          <t>avg_untrained_train</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>untrained_min</t>
+          <t>avg_untrained_test</t>
         </is>
       </c>
     </row>
@@ -739,22 +739,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7906214082241059</v>
+        <v>0.7732970154285431</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7922705411911011</v>
+        <v>0.7740535285021808</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7890471220016479</v>
+        <v>0.7711438628343436</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7908628189563751</v>
+        <v>0.7733134508132935</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7925859689712524</v>
+        <v>0.7740702049152272</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7891939878463745</v>
+        <v>0.7711596122154822</v>
       </c>
     </row>
     <row r="3">
@@ -762,22 +762,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7908078229427338</v>
+        <v>0.7733064341545105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7925535440444946</v>
+        <v>0.7740630636344085</v>
       </c>
       <c r="D3" t="n">
-        <v>0.789075493812561</v>
+        <v>0.7711529502501855</v>
       </c>
       <c r="E3" t="n">
-        <v>0.790873064994812</v>
+        <v>0.7733063840866089</v>
       </c>
       <c r="F3" t="n">
-        <v>0.792738139629364</v>
+        <v>0.7740634599247495</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7891939282417297</v>
+        <v>0.7711516297780551</v>
       </c>
     </row>
     <row r="4">
@@ -785,22 +785,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7908377468585968</v>
+        <v>0.7733075964450836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7925435304641724</v>
+        <v>0.7740641413508235</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7892128825187683</v>
+        <v>0.771154353251824</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7908187603950501</v>
+        <v>0.7733062553405762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7925798892974854</v>
+        <v>0.7740630765218992</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7891991138458252</v>
+        <v>0.7711522258245028</v>
       </c>
     </row>
     <row r="5">
@@ -808,22 +808,22 @@
         <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7908221137523651</v>
+        <v>0.7733034074306488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7924769520759583</v>
+        <v>0.7740598369289089</v>
       </c>
       <c r="D5" t="n">
-        <v>0.789239227771759</v>
+        <v>0.7711504927048316</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7908337521553039</v>
+        <v>0.7733091080188751</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7925177216529846</v>
+        <v>0.7740660342010292</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7892272472381592</v>
+        <v>0.7711547796542828</v>
       </c>
     </row>
     <row r="6">
@@ -831,22 +831,22 @@
         <v>70</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7908522450923919</v>
+        <v>0.7733027219772339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7925485968589783</v>
+        <v>0.7740592183293523</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7892629504203796</v>
+        <v>0.7711496169750507</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7908570981025695</v>
+        <v>0.7733092403411865</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7925568819046021</v>
+        <v>0.7740652980031194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.789239227771759</v>
+        <v>0.7711573839187622</v>
       </c>
     </row>
     <row r="7">
@@ -854,22 +854,22 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7908496975898742</v>
+        <v>0.7733032381534577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7925370931625366</v>
+        <v>0.7740601349521328</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7892277836799622</v>
+        <v>0.7711489934187669</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7909084177017212</v>
+        <v>0.7733092141151429</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7925814986228943</v>
+        <v>0.7740650386423678</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7893232107162476</v>
+        <v>0.771158021229964</v>
       </c>
     </row>
     <row r="8">
@@ -877,22 +877,22 @@
         <v>200</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7908462274074555</v>
+        <v>0.7733028364181519</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7925001978874207</v>
+        <v>0.7740590958981901</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7892578840255737</v>
+        <v>0.7711504055903509</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7908975946903228</v>
+        <v>0.7733072102069855</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7926109433174133</v>
+        <v>0.7740630716890902</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7892688512802124</v>
+        <v>0.7711559121425335</v>
       </c>
     </row>
   </sheetData>
